--- a/Top200KeystrokeDisambiguationAnalysis-2.xlsx
+++ b/Top200KeystrokeDisambiguationAnalysis-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajf/Desktop/MedListSearchf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauravbhatti/Projects/mnoa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784051C-5FE4-B542-92C7-5A4F2546D9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B211E628-866E-7943-8A5F-9533E055E553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4120" yWindow="-19600" windowWidth="32580" windowHeight="17680" xr2:uid="{989F9638-2F46-B84C-B36E-21DE6ECD507C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{989F9638-2F46-B84C-B36E-21DE6ECD507C}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 Top 200 from PTCB" sheetId="1" r:id="rId1"/>
@@ -2262,12 +2262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2284,15 +2283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2302,9 +2292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2316,14 +2303,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2332,6 +2313,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6049,9 +6042,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6089,7 +6082,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6195,7 +6188,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6337,7 +6330,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6353,7 +6346,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" customWidth="1"/>
     <col min="5" max="13" width="7.83203125" customWidth="1"/>
@@ -6377,24 +6370,24 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -6405,10 +6398,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
@@ -6419,8 +6412,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -6429,16 +6422,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6446,7 +6439,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
@@ -6460,7 +6453,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -6471,16 +6464,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6488,7 +6481,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
@@ -6499,16 +6492,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6516,7 +6509,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -6527,10 +6520,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -6544,7 +6537,7 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
@@ -6555,10 +6548,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
@@ -6572,7 +6565,7 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
@@ -6583,16 +6576,16 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6600,7 +6593,7 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
@@ -6611,10 +6604,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
@@ -6628,7 +6621,7 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C20" t="s">
@@ -6639,10 +6632,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
@@ -6653,24 +6646,24 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
@@ -6681,10 +6674,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C24" t="s">
@@ -6695,10 +6688,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
@@ -6709,10 +6702,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C26" t="s">
@@ -6723,10 +6716,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C27" t="s">
@@ -6737,10 +6730,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C28" t="s">
@@ -6751,10 +6744,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C29" t="s">
@@ -6765,10 +6758,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C30" t="s">
@@ -6779,10 +6772,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C31" t="s">
@@ -6793,10 +6786,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C32" t="s">
@@ -6807,10 +6800,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C33" t="s">
@@ -6821,32 +6814,32 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="22">
         <v>31</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C34" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
       <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C36" t="s">
@@ -6857,10 +6850,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C37" t="s">
@@ -6871,10 +6864,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="22">
         <v>34</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="23" t="s">
         <v>490</v>
       </c>
       <c r="C38" t="s">
@@ -6885,8 +6878,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -6895,10 +6888,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C40" t="s">
@@ -6909,10 +6902,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C41" t="s">
@@ -6923,10 +6916,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C42" t="s">
@@ -6937,10 +6930,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C43" t="s">
@@ -6951,10 +6944,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C44" t="s">
@@ -6965,10 +6958,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C45" t="s">
@@ -6979,24 +6972,24 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C47" t="s">
@@ -7007,10 +7000,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C48" t="s">
@@ -7021,10 +7014,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C49" t="s">
@@ -7035,10 +7028,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>45</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C50" t="s">
@@ -7049,10 +7042,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C51" t="s">
@@ -7063,10 +7056,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C52" t="s">
@@ -7077,10 +7070,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C53" t="s">
@@ -7091,10 +7084,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C54" t="s">
@@ -7105,10 +7098,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C55" t="s">
@@ -7119,10 +7112,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C56" t="s">
@@ -7133,10 +7126,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C57" t="s">
@@ -7147,10 +7140,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C58" t="s">
@@ -7161,10 +7154,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>54</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C59" t="s">
@@ -7175,10 +7168,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>55</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C60" t="s">
@@ -7189,10 +7182,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>56</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C61" t="s">
@@ -7203,24 +7196,24 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>57</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>58</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C63" t="s">
@@ -7231,10 +7224,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>59</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C64" t="s">
@@ -7245,24 +7238,24 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
+      <c r="A65" s="3">
         <v>60</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>61</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C66" t="s">
@@ -7273,10 +7266,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67" s="22">
         <v>62</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="21" t="s">
         <v>164</v>
       </c>
       <c r="C67" t="s">
@@ -7287,8 +7280,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="16"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="21"/>
       <c r="C68" t="s">
         <v>166</v>
       </c>
@@ -7297,10 +7290,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>63</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C69" t="s">
@@ -7311,10 +7304,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>64</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C70" t="s">
@@ -7325,10 +7318,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>65</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C71" t="s">
@@ -7339,38 +7332,38 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>66</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>67</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>68</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C74" t="s">
@@ -7381,10 +7374,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>69</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C75" t="s">
@@ -7395,10 +7388,10 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>70</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>186</v>
       </c>
       <c r="C76" t="s">
@@ -7409,10 +7402,10 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>71</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>188</v>
       </c>
       <c r="C77" t="s">
@@ -7423,10 +7416,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="A78" s="22">
         <v>72</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="21" t="s">
         <v>497</v>
       </c>
       <c r="C78" t="s">
@@ -7437,8 +7430,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="21"/>
       <c r="C79" t="s">
         <v>191</v>
       </c>
@@ -7447,10 +7440,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>73</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C80" t="s">
@@ -7461,10 +7454,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>74</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>196</v>
       </c>
       <c r="C81" t="s">
@@ -7475,10 +7468,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>75</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C82" t="s">
@@ -7489,10 +7482,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>76</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>200</v>
       </c>
       <c r="C83" t="s">
@@ -7503,10 +7496,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>77</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>203</v>
       </c>
       <c r="C84" t="s">
@@ -7517,10 +7510,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>78</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>206</v>
       </c>
       <c r="C85" t="s">
@@ -7531,10 +7524,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>79</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>208</v>
       </c>
       <c r="C86" t="s">
@@ -7545,10 +7538,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>80</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>210</v>
       </c>
       <c r="C87" t="s">
@@ -7559,10 +7552,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>81</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>213</v>
       </c>
       <c r="C88" t="s">
@@ -7573,10 +7566,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>82</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>215</v>
       </c>
       <c r="C89" t="s">
@@ -7587,24 +7580,24 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>83</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>84</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C91" t="s">
@@ -7615,24 +7608,24 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>85</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="10" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>86</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>222</v>
       </c>
       <c r="C93" t="s">
@@ -7643,24 +7636,24 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>87</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="10" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>88</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>226</v>
       </c>
       <c r="C95" t="s">
@@ -7671,24 +7664,24 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>89</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>90</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>229</v>
       </c>
       <c r="C97" t="s">
@@ -7699,10 +7692,10 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>91</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C98" t="s">
@@ -7713,24 +7706,24 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>92</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>93</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>236</v>
       </c>
       <c r="C100" t="s">
@@ -7741,10 +7734,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>94</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>238</v>
       </c>
       <c r="C101" t="s">
@@ -7755,10 +7748,10 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>95</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>240</v>
       </c>
       <c r="C102" t="s">
@@ -7769,10 +7762,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>96</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>242</v>
       </c>
       <c r="C103" t="s">
@@ -7783,10 +7776,10 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>97</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C104" t="s">
@@ -7797,24 +7790,24 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>98</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>99</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>249</v>
       </c>
       <c r="C106" t="s">
@@ -7825,10 +7818,10 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>100</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>251</v>
       </c>
       <c r="C107" t="s">
@@ -7839,24 +7832,24 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>101</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>102</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>255</v>
       </c>
       <c r="C109" t="s">
@@ -7867,10 +7860,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>103</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>258</v>
       </c>
       <c r="C110" t="s">
@@ -7881,32 +7874,32 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111" s="22">
         <v>104</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="21" t="s">
         <v>260</v>
       </c>
       <c r="C111" t="s">
         <v>261</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="16"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="21"/>
       <c r="C112" t="s">
         <v>262</v>
       </c>
-      <c r="D112" s="8"/>
+      <c r="D112" s="24"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>105</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>264</v>
       </c>
       <c r="C113" t="s">
@@ -7917,10 +7910,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>106</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>266</v>
       </c>
       <c r="C114" t="s">
@@ -7931,24 +7924,24 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>107</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>108</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>269</v>
       </c>
       <c r="C116" t="s">
@@ -7959,10 +7952,10 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>109</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>271</v>
       </c>
       <c r="C117" t="s">
@@ -7973,10 +7966,10 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>110</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C118" t="s">
@@ -7987,10 +7980,10 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>111</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>275</v>
       </c>
       <c r="C119" t="s">
@@ -8001,10 +7994,10 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>112</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>278</v>
       </c>
       <c r="C120" t="s">
@@ -8015,10 +8008,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>113</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>280</v>
       </c>
       <c r="C121" t="s">
@@ -8029,10 +8022,10 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>114</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>282</v>
       </c>
       <c r="C122" t="s">
@@ -8043,10 +8036,10 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>115</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C123" t="s">
@@ -8057,24 +8050,24 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>116</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>117</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>289</v>
       </c>
       <c r="C125" t="s">
@@ -8085,10 +8078,10 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>118</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>291</v>
       </c>
       <c r="C126" t="s">
@@ -8099,10 +8092,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="A127" s="22">
         <v>119</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="21" t="s">
         <v>293</v>
       </c>
       <c r="C127" t="s">
@@ -8113,8 +8106,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="16"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="21"/>
       <c r="C128" t="s">
         <v>507</v>
       </c>
@@ -8123,10 +8116,10 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>120</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>295</v>
       </c>
       <c r="C129" t="s">
@@ -8137,10 +8130,10 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>121</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>297</v>
       </c>
       <c r="C130" t="s">
@@ -8151,10 +8144,10 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>122</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>300</v>
       </c>
       <c r="C131" t="s">
@@ -8165,10 +8158,10 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>123</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>303</v>
       </c>
       <c r="C132" t="s">
@@ -8179,10 +8172,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>124</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>305</v>
       </c>
       <c r="C133" t="s">
@@ -8193,10 +8186,10 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>125</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>308</v>
       </c>
       <c r="C134" t="s">
@@ -8207,10 +8200,10 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>126</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>310</v>
       </c>
       <c r="C135" t="s">
@@ -8221,10 +8214,10 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>127</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>312</v>
       </c>
       <c r="C136" t="s">
@@ -8235,10 +8228,10 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="A137" s="22">
         <v>128</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="21" t="s">
         <v>314</v>
       </c>
       <c r="C137" t="s">
@@ -8249,8 +8242,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
-      <c r="B138" s="16"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="21"/>
       <c r="C138" t="s">
         <v>316</v>
       </c>
@@ -8259,8 +8252,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="16"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="21"/>
       <c r="C139" t="s">
         <v>317</v>
       </c>
@@ -8269,10 +8262,10 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>129</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>318</v>
       </c>
       <c r="C140" t="s">
@@ -8283,10 +8276,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141" s="22">
         <v>130</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="21" t="s">
         <v>320</v>
       </c>
       <c r="C141" t="s">
@@ -8297,8 +8290,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
-      <c r="B142" s="16"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="21"/>
       <c r="C142" t="s">
         <v>322</v>
       </c>
@@ -8307,8 +8300,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="21"/>
       <c r="C143" t="s">
         <v>323</v>
       </c>
@@ -8317,22 +8310,22 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="A144" s="22">
         <v>131</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="21" t="s">
         <v>324</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="D144" s="10" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="16"/>
+      <c r="A145" s="22"/>
+      <c r="B145" s="21"/>
       <c r="C145" t="s">
         <v>325</v>
       </c>
@@ -8341,8 +8334,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="21"/>
       <c r="C146" t="s">
         <v>326</v>
       </c>
@@ -8354,7 +8347,7 @@
       <c r="A147">
         <v>132</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>328</v>
       </c>
       <c r="C147" t="s">
@@ -8368,7 +8361,7 @@
       <c r="A148">
         <v>133</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>331</v>
       </c>
       <c r="C148" t="s">
@@ -8379,16 +8372,16 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="11">
+      <c r="A149" s="3">
         <v>134</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8396,27 +8389,27 @@
       <c r="A150">
         <v>135</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+      <c r="A151" s="4">
         <v>136</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="4" t="s">
         <v>302</v>
       </c>
     </row>
@@ -8424,7 +8417,7 @@
       <c r="A152">
         <v>137</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>338</v>
       </c>
       <c r="C152" t="s">
@@ -8438,7 +8431,7 @@
       <c r="A153">
         <v>138</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>340</v>
       </c>
       <c r="C153" t="s">
@@ -8452,7 +8445,7 @@
       <c r="A154">
         <v>139</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="5" t="s">
         <v>343</v>
       </c>
       <c r="C154" t="s">
@@ -8466,7 +8459,7 @@
       <c r="A155">
         <v>140</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>346</v>
       </c>
       <c r="C155" t="s">
@@ -8480,7 +8473,7 @@
       <c r="A156">
         <v>141</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>348</v>
       </c>
       <c r="C156" t="s">
@@ -8494,7 +8487,7 @@
       <c r="A157">
         <v>142</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>350</v>
       </c>
       <c r="C157" t="s">
@@ -8508,7 +8501,7 @@
       <c r="A158">
         <v>143</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>353</v>
       </c>
       <c r="C158" t="s">
@@ -8522,7 +8515,7 @@
       <c r="A159">
         <v>144</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>356</v>
       </c>
       <c r="C159" t="s">
@@ -8536,7 +8529,7 @@
       <c r="A160">
         <v>145</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>358</v>
       </c>
       <c r="C160" t="s">
@@ -8550,7 +8543,7 @@
       <c r="A161">
         <v>146</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>360</v>
       </c>
       <c r="C161" t="s">
@@ -8561,23 +8554,23 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+      <c r="A162" s="22">
         <v>147</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="10" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="4"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="5" t="s">
+      <c r="A163" s="22"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="4" t="s">
         <v>514</v>
       </c>
       <c r="D163" t="s">
@@ -8588,7 +8581,7 @@
       <c r="A164">
         <v>148</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>363</v>
       </c>
       <c r="C164" t="s">
@@ -8602,7 +8595,7 @@
       <c r="A165">
         <v>149</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>366</v>
       </c>
       <c r="C165" t="s">
@@ -8616,7 +8609,7 @@
       <c r="A166">
         <v>150</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>368</v>
       </c>
       <c r="C166" t="s">
@@ -8630,7 +8623,7 @@
       <c r="A167">
         <v>151</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>370</v>
       </c>
       <c r="C167" t="s">
@@ -8641,10 +8634,10 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+      <c r="A168" s="22">
         <v>152</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="21" t="s">
         <v>372</v>
       </c>
       <c r="C168" t="s">
@@ -8655,8 +8648,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="4"/>
-      <c r="B169" s="16"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="21"/>
       <c r="C169" t="s">
         <v>373</v>
       </c>
@@ -8668,7 +8661,7 @@
       <c r="A170">
         <v>153</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>374</v>
       </c>
       <c r="C170" t="s">
@@ -8682,7 +8675,7 @@
       <c r="A171">
         <v>154</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C171" t="s">
@@ -8696,7 +8689,7 @@
       <c r="A172">
         <v>155</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>378</v>
       </c>
       <c r="C172" t="s">
@@ -8710,7 +8703,7 @@
       <c r="A173">
         <v>156</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>380</v>
       </c>
       <c r="C173" t="s">
@@ -8721,10 +8714,10 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+      <c r="A174" s="22">
         <v>157</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="23" t="s">
         <v>516</v>
       </c>
       <c r="C174" t="s">
@@ -8735,8 +8728,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
-      <c r="B175" s="9"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
       <c r="C175" t="s">
         <v>383</v>
       </c>
@@ -8748,7 +8741,7 @@
       <c r="A176">
         <v>158</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>386</v>
       </c>
       <c r="C176" t="s">
@@ -8762,7 +8755,7 @@
       <c r="A177">
         <v>159</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>389</v>
       </c>
       <c r="C177" t="s">
@@ -8776,7 +8769,7 @@
       <c r="A178">
         <v>160</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C178" t="s">
@@ -8790,7 +8783,7 @@
       <c r="A179">
         <v>161</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>393</v>
       </c>
       <c r="C179" t="s">
@@ -8804,7 +8797,7 @@
       <c r="A180">
         <v>162</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>395</v>
       </c>
       <c r="C180" t="s">
@@ -8815,16 +8808,16 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
+      <c r="A181" s="4">
         <v>163</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="4" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8832,7 +8825,7 @@
       <c r="A182">
         <v>164</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>398</v>
       </c>
       <c r="C182" t="s">
@@ -8843,10 +8836,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+      <c r="A183" s="22">
         <v>165</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="21" t="s">
         <v>401</v>
       </c>
       <c r="C183" t="s">
@@ -8857,8 +8850,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
-      <c r="B184" s="16"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="21"/>
       <c r="C184" t="s">
         <v>403</v>
       </c>
@@ -8870,7 +8863,7 @@
       <c r="A185">
         <v>166</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>404</v>
       </c>
       <c r="C185" t="s">
@@ -8884,7 +8877,7 @@
       <c r="A186">
         <v>167</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>406</v>
       </c>
       <c r="C186" t="s">
@@ -8898,7 +8891,7 @@
       <c r="A187">
         <v>168</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>409</v>
       </c>
       <c r="C187" t="s">
@@ -8912,7 +8905,7 @@
       <c r="A188">
         <v>169</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>412</v>
       </c>
       <c r="C188" t="s">
@@ -8926,7 +8919,7 @@
       <c r="A189">
         <v>170</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>415</v>
       </c>
       <c r="C189" t="s">
@@ -8940,7 +8933,7 @@
       <c r="A190">
         <v>171</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="5" t="s">
         <v>417</v>
       </c>
       <c r="C190" t="s">
@@ -8951,40 +8944,40 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+      <c r="A191" s="22">
         <v>172</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B191" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="15" t="s">
+      <c r="D191" s="11" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-      <c r="B192" s="16"/>
-      <c r="C192" s="5" t="s">
+      <c r="A192" s="22"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="A193" s="4">
         <v>173</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="4" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8992,7 +8985,7 @@
       <c r="A194">
         <v>174</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>424</v>
       </c>
       <c r="C194" t="s">
@@ -9006,7 +8999,7 @@
       <c r="A195">
         <v>175</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C195" t="s">
@@ -9017,24 +9010,24 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="A196" s="4">
         <v>176</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="2">
+      <c r="A197">
         <v>177</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>429</v>
       </c>
       <c r="C197" t="s">
@@ -9045,10 +9038,10 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
+      <c r="A198">
         <v>178</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>431</v>
       </c>
       <c r="C198" t="s">
@@ -9059,10 +9052,10 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
+      <c r="A199">
         <v>179</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>433</v>
       </c>
       <c r="C199" t="s">
@@ -9073,10 +9066,10 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
+      <c r="A200">
         <v>180</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>435</v>
       </c>
       <c r="C200" t="s">
@@ -9087,10 +9080,10 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
+      <c r="A201">
         <v>181</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>437</v>
       </c>
       <c r="C201" t="s">
@@ -9101,10 +9094,10 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
+      <c r="A202">
         <v>182</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>440</v>
       </c>
       <c r="C202" t="s">
@@ -9115,10 +9108,10 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="2">
+      <c r="A203">
         <v>183</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>443</v>
       </c>
       <c r="C203" t="s">
@@ -9129,24 +9122,24 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="A204" s="4">
         <v>184</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="2">
+      <c r="A205">
         <v>185</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="5" t="s">
         <v>445</v>
       </c>
       <c r="C205" t="s">
@@ -9157,24 +9150,24 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="A206" s="4">
         <v>186</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
+      <c r="A207">
         <v>187</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="5" t="s">
         <v>448</v>
       </c>
       <c r="C207" t="s">
@@ -9185,10 +9178,10 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="A208" s="4">
         <v>188</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="5" t="s">
         <v>451</v>
       </c>
       <c r="C208" t="s">
@@ -9199,10 +9192,10 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="2">
+      <c r="A209">
         <v>189</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="5" t="s">
         <v>453</v>
       </c>
       <c r="C209" t="s">
@@ -9213,10 +9206,10 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
+      <c r="A210" s="4">
         <v>190</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="5" t="s">
         <v>455</v>
       </c>
       <c r="C210" t="s">
@@ -9227,10 +9220,10 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
+      <c r="A211">
         <v>191</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="5" t="s">
         <v>457</v>
       </c>
       <c r="C211" t="s">
@@ -9241,10 +9234,10 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="5">
+      <c r="A212" s="4">
         <v>192</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="5" t="s">
         <v>459</v>
       </c>
       <c r="C212" t="s">
@@ -9255,10 +9248,10 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
+      <c r="A213">
         <v>193</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="5" t="s">
         <v>461</v>
       </c>
       <c r="C213" t="s">
@@ -9269,24 +9262,24 @@
       </c>
     </row>
     <row r="214" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A214" s="5">
+      <c r="A214" s="4">
         <v>194</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D214" s="7" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
+      <c r="A215" s="22">
         <v>195</v>
       </c>
-      <c r="B215" s="16" t="s">
+      <c r="B215" s="21" t="s">
         <v>466</v>
       </c>
       <c r="C215" t="s">
@@ -9297,8 +9290,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
-      <c r="B216" s="16"/>
+      <c r="A216" s="22"/>
+      <c r="B216" s="21"/>
       <c r="C216" t="s">
         <v>467</v>
       </c>
@@ -9307,24 +9300,24 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
+      <c r="A217" s="4">
         <v>196</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D217" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="5">
+      <c r="A218" s="4">
         <v>197</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="5" t="s">
         <v>469</v>
       </c>
       <c r="C218" t="s">
@@ -9335,10 +9328,10 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="5">
+      <c r="A219" s="4">
         <v>198</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="5" t="s">
         <v>471</v>
       </c>
       <c r="C219" t="s">
@@ -9349,10 +9342,10 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
+      <c r="A220" s="22">
         <v>199</v>
       </c>
-      <c r="B220" s="16" t="s">
+      <c r="B220" s="21" t="s">
         <v>473</v>
       </c>
       <c r="C220" t="s">
@@ -9363,8 +9356,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="4"/>
-      <c r="B221" s="16"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="21"/>
       <c r="C221" t="s">
         <v>474</v>
       </c>
@@ -9373,45 +9366,21 @@
       </c>
     </row>
     <row r="222" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A222" s="5">
+      <c r="A222" s="4">
         <v>200</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B220:B221"/>
@@ -9424,6 +9393,30 @@
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="B141:B143"/>
     <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A174:A175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9440,7 +9433,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
@@ -10583,554 +10576,552 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>24</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>224</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>219</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>98</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>224</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>178</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>46</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>173</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>224</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>80</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>144</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>203</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>223</v>
       </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
         <v>31</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>193</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>210</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>223</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>21</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>203</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>214</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>222</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>212</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>212</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>219</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>11</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>213</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>208</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>214</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>19</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>9</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>215</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>194</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>195</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>33</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>222</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>161</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>162</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>53</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>222</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>108</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>109</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>47</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>222</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="19">
         <v>62</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="19">
         <v>62</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="19">
         <v>17</v>
       </c>
-      <c r="E13" s="26">
-        <v>0</v>
-      </c>
-      <c r="F13" s="27">
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
         <v>223</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>45</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>16</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
         <v>223</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>29</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>29</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>9</v>
       </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <v>223</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>20</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>20</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>7</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
         <v>223</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>13</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>6</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <v>223</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>7</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>7</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
         <v>223</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>6</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
         <v>223</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>5</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>2</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
         <v>223</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
         <v>223</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
         <v>223</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
         <v>223</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -11138,46 +11129,46 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
       <c r="F33"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="F34"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -11185,8 +11176,8 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -11194,8 +11185,8 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="14"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
@@ -11203,8 +11194,8 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
@@ -11212,154 +11203,154 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="14"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="20"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="20"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="20"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="20"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="19"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="20"/>
-      <c r="C63" s="19"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="19"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="20"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="19"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="20"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11381,8 +11372,8 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:23" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>684</v>
       </c>
     </row>
@@ -13423,554 +13414,552 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
-        <v>0</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
-        <v>0</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
-        <v>0</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
-        <v>0</v>
-      </c>
-      <c r="C16" s="23">
-        <v>0</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
-        <v>0</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
-        <v>0</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="23">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>0</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="23">
-        <v>0</v>
-      </c>
-      <c r="C20" s="23">
-        <v>0</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
-        <v>0</v>
-      </c>
-      <c r="C21" s="23">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="23">
-        <v>0</v>
-      </c>
-      <c r="C22" s="23">
-        <v>0</v>
-      </c>
-      <c r="D22" s="23">
-        <v>0</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -13978,46 +13967,46 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
       <c r="F33"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="F34"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -14025,8 +14014,8 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -14034,8 +14023,8 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="14"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
@@ -14043,8 +14032,8 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
@@ -14052,154 +14041,154 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="14"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="20"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="20"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="20"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="20"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="19"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="20"/>
-      <c r="C63" s="19"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="19"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="20"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="19"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="20"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
